--- a/data/SuppTable3__SouthAfrica_ONT-vs-Illumina_metadata.xlsx
+++ b/data/SuppTable3__SouthAfrica_ONT-vs-Illumina_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mb29/Papers/AmpliSeq_Treponema_paper_2024/Github/TP-Phylo-Plex_paper_2025/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F30318-F588-F541-8747-4DC8A7035C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840E8E2A-90AC-8545-BAC6-FF3FC5A88330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36860" yWindow="1560" windowWidth="34580" windowHeight="19120" xr2:uid="{7D288DAB-841B-5641-863B-83446A7A6A09}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="28800" windowHeight="14520" xr2:uid="{7D288DAB-841B-5641-863B-83446A7A6A09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet4!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="485">
   <si>
     <t>Sample Name</t>
   </si>
@@ -834,207 +835,12 @@
     <t>TPA_Lineage</t>
   </si>
   <si>
-    <t>Sample_Name</t>
-  </si>
-  <si>
     <t>Sample_Year</t>
   </si>
   <si>
-    <t>TPA_SA006</t>
-  </si>
-  <si>
-    <t>17GUS-HE-014</t>
-  </si>
-  <si>
-    <t>KZN15-GUD-P1-016</t>
-  </si>
-  <si>
-    <t>17GUS-ZW-014</t>
-  </si>
-  <si>
-    <t>19GUS-AH-023</t>
-  </si>
-  <si>
-    <t>22GUS-CZ-022</t>
-  </si>
-  <si>
-    <t>19GUS-AH-027</t>
-  </si>
-  <si>
-    <t>FS07-GUD-005</t>
-  </si>
-  <si>
-    <t>LM10-GUD-010</t>
-  </si>
-  <si>
-    <t>20GUS-AH-006</t>
-  </si>
-  <si>
-    <t>21GUS-AH-001</t>
-  </si>
-  <si>
-    <t>21GUS-SR-007</t>
-  </si>
-  <si>
-    <t>20GUS-CZ-006</t>
-  </si>
-  <si>
-    <t>20GUS-CZ-011</t>
-  </si>
-  <si>
-    <t>21GUS-CZ-047</t>
-  </si>
-  <si>
-    <t>21GUS-AH-047</t>
-  </si>
-  <si>
-    <t>21GUS-CZ-050</t>
-  </si>
-  <si>
-    <t>KZN15-GUD-P1-037</t>
-  </si>
-  <si>
-    <t>GP14-GUD-075</t>
-  </si>
-  <si>
-    <t>17GUS-HE-018</t>
-  </si>
-  <si>
-    <t>18GUS-AH-030</t>
-  </si>
-  <si>
-    <t>21GUS-CZ-025</t>
-  </si>
-  <si>
-    <t>21GUS-CZ-041</t>
-  </si>
-  <si>
-    <t>20GUS-CZ-038</t>
-  </si>
-  <si>
-    <t>20GUS-CZ-021</t>
-  </si>
-  <si>
-    <t>22GUS-CZ-019</t>
-  </si>
-  <si>
-    <t>18GUS-AH-087</t>
-  </si>
-  <si>
-    <t>GP16-GUD-AH-078</t>
-  </si>
-  <si>
-    <t>KZN15-GUD-P1-023</t>
-  </si>
-  <si>
-    <t>22GUS-CZ-034</t>
-  </si>
-  <si>
-    <t>FS07-GUD-052</t>
-  </si>
-  <si>
-    <t>GP-08-GUD-235</t>
-  </si>
-  <si>
-    <t>GP-09-GUD-121</t>
-  </si>
-  <si>
-    <t>23GUS-AH007</t>
-  </si>
-  <si>
-    <t>23GUS-AH009</t>
-  </si>
-  <si>
-    <t>23GUS-AH011</t>
-  </si>
-  <si>
-    <t>23GUS-AH019</t>
-  </si>
-  <si>
-    <t>23GUS-AH024</t>
-  </si>
-  <si>
-    <t>23GUS-AH033</t>
-  </si>
-  <si>
-    <t>23GUS-AH040</t>
-  </si>
-  <si>
-    <t>23GUS-AH044</t>
-  </si>
-  <si>
-    <t>23GUS-AH049</t>
-  </si>
-  <si>
-    <t>23GUS-AH050</t>
-  </si>
-  <si>
-    <t>23GUS-AH055</t>
-  </si>
-  <si>
-    <t>23GUS-AH059</t>
-  </si>
-  <si>
-    <t>23GUS-CZ003</t>
-  </si>
-  <si>
-    <t>23GUS-CZ005</t>
-  </si>
-  <si>
-    <t>23GUS-CZ007</t>
-  </si>
-  <si>
-    <t>23GUS-CZ011</t>
-  </si>
-  <si>
-    <t>23GUS-CZ012</t>
-  </si>
-  <si>
-    <t>23GUS-CZ013</t>
-  </si>
-  <si>
-    <t>23GUS-CZ015</t>
-  </si>
-  <si>
-    <t>23GUS-CZ016</t>
-  </si>
-  <si>
-    <t>23GUS-CZ022</t>
-  </si>
-  <si>
-    <t>23GUS-CZ026</t>
-  </si>
-  <si>
-    <t>23GUS-CZ033</t>
-  </si>
-  <si>
-    <t>23GUS-CZ034</t>
-  </si>
-  <si>
-    <t>23GUS-CZ039</t>
-  </si>
-  <si>
-    <t>23GUS-CZ040</t>
-  </si>
-  <si>
-    <t>23GUS-CZ041</t>
-  </si>
-  <si>
-    <t>23GUS-SR001</t>
-  </si>
-  <si>
-    <t>23GUS-SR003</t>
-  </si>
-  <si>
     <t>ENA_Sample_Accession</t>
   </si>
   <si>
-    <t>ERR13170850</t>
-  </si>
-  <si>
-    <t>ERR13170866</t>
-  </si>
-  <si>
     <t>ERR13170819</t>
   </si>
   <si>
@@ -1095,18 +901,12 @@
     <t>ERS14895994</t>
   </si>
   <si>
-    <t>ERR13170839</t>
-  </si>
-  <si>
     <t>ERR13170801</t>
   </si>
   <si>
     <t>ERS14895971</t>
   </si>
   <si>
-    <t>ERR13170854</t>
-  </si>
-  <si>
     <t>ERR13170800</t>
   </si>
   <si>
@@ -1119,21 +919,12 @@
     <t>ERS14895944</t>
   </si>
   <si>
-    <t>ERR13170848</t>
-  </si>
-  <si>
-    <t>ERR13170851</t>
-  </si>
-  <si>
     <t>ERR13170771</t>
   </si>
   <si>
     <t>ERS14895980</t>
   </si>
   <si>
-    <t>ERR13170857</t>
-  </si>
-  <si>
     <t>ERR13170807</t>
   </si>
   <si>
@@ -1152,9 +943,6 @@
     <t>ERS14896000</t>
   </si>
   <si>
-    <t>ERR13170859</t>
-  </si>
-  <si>
     <t>ERR13170769</t>
   </si>
   <si>
@@ -1191,9 +979,6 @@
     <t>ERS14895939</t>
   </si>
   <si>
-    <t>ERR13170865</t>
-  </si>
-  <si>
     <t>ERR13170799</t>
   </si>
   <si>
@@ -1218,9 +1003,6 @@
     <t>ERS14895976</t>
   </si>
   <si>
-    <t>ERR13170858</t>
-  </si>
-  <si>
     <t>ERR13170823</t>
   </si>
   <si>
@@ -1275,18 +1057,12 @@
     <t>ERS14895987</t>
   </si>
   <si>
-    <t>ERR13170845</t>
-  </si>
-  <si>
     <t>ERR13170794</t>
   </si>
   <si>
     <t>ERS14895963</t>
   </si>
   <si>
-    <t>ERR13170846</t>
-  </si>
-  <si>
     <t>ERR13170787</t>
   </si>
   <si>
@@ -1299,18 +1075,6 @@
     <t>ERS14896023</t>
   </si>
   <si>
-    <t>ERR13170867</t>
-  </si>
-  <si>
-    <t>ERR13170849</t>
-  </si>
-  <si>
-    <t>ERR13170861</t>
-  </si>
-  <si>
-    <t>ERR13170864</t>
-  </si>
-  <si>
     <t>ERR13170776</t>
   </si>
   <si>
@@ -1323,9 +1087,6 @@
     <t>ERS14895986</t>
   </si>
   <si>
-    <t>ERR13170840</t>
-  </si>
-  <si>
     <t>ERR13170782</t>
   </si>
   <si>
@@ -1356,18 +1117,12 @@
     <t>ERS14895996</t>
   </si>
   <si>
-    <t>ERR13170837</t>
-  </si>
-  <si>
     <t>ERR13170785</t>
   </si>
   <si>
     <t>ERS14895955</t>
   </si>
   <si>
-    <t>ERR13170855</t>
-  </si>
-  <si>
     <t>ERR13170808</t>
   </si>
   <si>
@@ -1392,9 +1147,6 @@
     <t>ERS14895974</t>
   </si>
   <si>
-    <t>ERR13170856</t>
-  </si>
-  <si>
     <t>ERR13170779</t>
   </si>
   <si>
@@ -1413,9 +1165,6 @@
     <t>ERS14895967</t>
   </si>
   <si>
-    <t>ERR13170847</t>
-  </si>
-  <si>
     <t>ERR13170790</t>
   </si>
   <si>
@@ -1434,9 +1183,6 @@
     <t>ERS14896001</t>
   </si>
   <si>
-    <t>ERR13170863</t>
-  </si>
-  <si>
     <t>ERR13170770</t>
   </si>
   <si>
@@ -1467,30 +1213,18 @@
     <t>ERS14895961</t>
   </si>
   <si>
-    <t>ERR13170841</t>
-  </si>
-  <si>
     <t>ERR13170833</t>
   </si>
   <si>
     <t>ERS14896003</t>
   </si>
   <si>
-    <t>ERR13170860</t>
-  </si>
-  <si>
-    <t>ERR13170852</t>
-  </si>
-  <si>
     <t>ERR13170784</t>
   </si>
   <si>
     <t>ERS14895954</t>
   </si>
   <si>
-    <t>ERR13170842</t>
-  </si>
-  <si>
     <t>ERR13170802</t>
   </si>
   <si>
@@ -1503,27 +1237,12 @@
     <t>ERS14895966</t>
   </si>
   <si>
-    <t>ERR13170853</t>
-  </si>
-  <si>
-    <t>ERR13170838</t>
-  </si>
-  <si>
-    <t>ERR13170843</t>
-  </si>
-  <si>
-    <t>ERR13170844</t>
-  </si>
-  <si>
     <t>ERR13170829</t>
   </si>
   <si>
     <t>ERS14895999</t>
   </si>
   <si>
-    <t>ERR13170862</t>
-  </si>
-  <si>
     <t>ERR13170822</t>
   </si>
   <si>
@@ -1554,224 +1273,237 @@
     <t>ERS14895962</t>
   </si>
   <si>
-    <t>ERR13170836</t>
-  </si>
-  <si>
     <t>Illumima_ENA_Read Accession</t>
   </si>
   <si>
-    <t>SRR/ENA_Accession</t>
-  </si>
-  <si>
-    <t>ERR4899215</t>
-  </si>
-  <si>
-    <t>Cleaned_fastq_id</t>
-  </si>
-  <si>
-    <t>31822_1#28.Treponema.ds2460254-reads</t>
-  </si>
-  <si>
-    <t>47325_2#13.Treponema.ds2079749-reads</t>
-  </si>
-  <si>
-    <t>47325_2#14.Treponema.ds1221304-reads</t>
-  </si>
-  <si>
-    <t>47325_2#15.Treponema.ds2500000-reads</t>
-  </si>
-  <si>
-    <t>47325_2#16.Treponema.ds1771960-reads</t>
-  </si>
-  <si>
-    <t>47325_2#17.Treponema.ds2500000-reads</t>
-  </si>
-  <si>
-    <t>47325_2#18.Treponema.ds2500000-reads</t>
-  </si>
-  <si>
-    <t>47325_2#19.Treponema.ds1039940-reads</t>
-  </si>
-  <si>
-    <t>47325_2#20.Treponema.ds1701661-reads</t>
-  </si>
-  <si>
-    <t>47331_1#1.Treponema.ds2500000-reads</t>
-  </si>
-  <si>
-    <t>47331_1#2.Treponema.ds2500000-reads</t>
-  </si>
-  <si>
-    <t>47331_1#3.Treponema.ds2500000-reads</t>
-  </si>
-  <si>
-    <t>47331_1#4.Treponema.ds2327719-reads</t>
-  </si>
-  <si>
-    <t>47331_1#5.Treponema.ds2326430-reads</t>
-  </si>
-  <si>
-    <t>47331_1#6.Treponema.ds2500000-reads</t>
-  </si>
-  <si>
-    <t>47331_1#7.Treponema.ds2449306-reads</t>
-  </si>
-  <si>
-    <t>47331_1#8.Treponema.ds1416638-reads</t>
-  </si>
-  <si>
-    <t>47331_1#9.Treponema.ds2500000-reads</t>
-  </si>
-  <si>
-    <t>47331_1#10.Treponema.ds401762-reads</t>
-  </si>
-  <si>
-    <t>47331_1#11.Treponema.ds2500000-reads</t>
-  </si>
-  <si>
-    <t>47331_1#12.Treponema.ds262584-reads</t>
-  </si>
-  <si>
-    <t>47331_2#1.Treponema.ds1427847-reads</t>
-  </si>
-  <si>
-    <t>47331_2#2.Treponema.ds1097586-reads</t>
-  </si>
-  <si>
-    <t>47331_2#3.Treponema.ds2500000-reads</t>
-  </si>
-  <si>
-    <t>47331_2#4.Treponema.ds2500000-reads</t>
-  </si>
-  <si>
-    <t>47331_2#5.Treponema.ds913109-reads</t>
-  </si>
-  <si>
-    <t>47331_2#6.Treponema.ds1043918-reads</t>
-  </si>
-  <si>
-    <t>47331_2#7.Treponema.ds428201-reads</t>
-  </si>
-  <si>
-    <t>47331_2#8.Treponema.ds1787017-reads</t>
-  </si>
-  <si>
-    <t>47331_2#9.Treponema.ds367661-reads</t>
-  </si>
-  <si>
-    <t>47331_2#10.Treponema.ds2500000-reads</t>
-  </si>
-  <si>
-    <t>47331_2#11.Treponema.ds390069-reads</t>
-  </si>
-  <si>
-    <t>47331_2#12.Treponema.ds1982097-reads</t>
-  </si>
-  <si>
-    <t>48696_1#1.Treponema.ds536341-reads</t>
-  </si>
-  <si>
-    <t>48696_1#2.Treponema.ds114877-reads</t>
-  </si>
-  <si>
-    <t>48696_1#3.Treponema.ds899826-reads</t>
-  </si>
-  <si>
-    <t>48696_1#4.Treponema.ds47242-reads</t>
-  </si>
-  <si>
-    <t>48696_1#5.Treponema.ds13641-reads</t>
-  </si>
-  <si>
-    <t>48696_1#6.Treponema.ds422899-reads</t>
-  </si>
-  <si>
-    <t>48696_1#7.Treponema.ds171770-reads</t>
-  </si>
-  <si>
-    <t>48696_1#8.Treponema.ds18579-reads</t>
-  </si>
-  <si>
-    <t>48696_1#9.Treponema.ds3500000-reads</t>
-  </si>
-  <si>
-    <t>48696_1#10.Treponema.ds213550-reads</t>
-  </si>
-  <si>
-    <t>48696_1#11.Treponema.ds17026-reads</t>
-  </si>
-  <si>
-    <t>48696_1#12.Treponema.ds82777-reads</t>
-  </si>
-  <si>
-    <t>48696_1#13.Treponema.ds223507-reads</t>
-  </si>
-  <si>
-    <t>48696_1#14.Treponema.ds344412-reads</t>
-  </si>
-  <si>
-    <t>48696_1#15.Treponema.ds2339774-reads</t>
-  </si>
-  <si>
-    <t>48696_1#16.Treponema.ds3500000-reads</t>
-  </si>
-  <si>
-    <t>48696_1#17.Treponema.ds6971-reads</t>
-  </si>
-  <si>
-    <t>48696_1#18.Treponema.ds105892-reads</t>
-  </si>
-  <si>
-    <t>48696_1#19.Treponema.ds627619-reads</t>
-  </si>
-  <si>
-    <t>48696_1#20.Treponema.ds22417-reads</t>
-  </si>
-  <si>
-    <t>48696_1#21.Treponema.ds3500000-reads</t>
-  </si>
-  <si>
-    <t>48696_1#22.Treponema.ds876960-reads</t>
-  </si>
-  <si>
-    <t>48696_1#23.Treponema.ds482468-reads</t>
-  </si>
-  <si>
-    <t>48696_1#24.Treponema.ds632143-reads</t>
-  </si>
-  <si>
-    <t>48696_1#25.Treponema.ds218057-reads</t>
-  </si>
-  <si>
-    <t>48696_1#26.Treponema.ds543232-reads</t>
-  </si>
-  <si>
-    <t>48696_1#27.Treponema.ds100471-reads</t>
-  </si>
-  <si>
-    <t>48696_1#28.Treponema.ds95857-reads</t>
-  </si>
-  <si>
-    <t>48696_1#29.Treponema.ds3500000-reads</t>
-  </si>
-  <si>
     <t>ONT_ENA_Read Accession</t>
+  </si>
+  <si>
+    <t>ERR14364088</t>
+  </si>
+  <si>
+    <t>ERR14364089</t>
+  </si>
+  <si>
+    <t>ERR14364090</t>
+  </si>
+  <si>
+    <t>ERR14364092</t>
+  </si>
+  <si>
+    <t>ERR14364091</t>
+  </si>
+  <si>
+    <t>ERR14364105</t>
+  </si>
+  <si>
+    <t>ERR14364094</t>
+  </si>
+  <si>
+    <t>ERR14364096</t>
+  </si>
+  <si>
+    <t>ERR14364108</t>
+  </si>
+  <si>
+    <t>ERR14364116</t>
+  </si>
+  <si>
+    <t>ERR14364124</t>
+  </si>
+  <si>
+    <t>ERR14364098</t>
+  </si>
+  <si>
+    <t>ERR14364125</t>
+  </si>
+  <si>
+    <t>ERR14364127</t>
+  </si>
+  <si>
+    <t>ERR14364101</t>
+  </si>
+  <si>
+    <t>ERR14364138</t>
+  </si>
+  <si>
+    <t>ERR14364142</t>
+  </si>
+  <si>
+    <t>ERR14364102</t>
+  </si>
+  <si>
+    <t>ERR14364103</t>
+  </si>
+  <si>
+    <t>ERR14364107</t>
+  </si>
+  <si>
+    <t>ERR14364109</t>
+  </si>
+  <si>
+    <t>ERR14364110</t>
+  </si>
+  <si>
+    <t>ERR14364112</t>
+  </si>
+  <si>
+    <t>ERR14364113</t>
+  </si>
+  <si>
+    <t>ERR14364114</t>
+  </si>
+  <si>
+    <t>ERR14364115</t>
+  </si>
+  <si>
+    <t>ERR14364118</t>
+  </si>
+  <si>
+    <t>ERR14364120</t>
+  </si>
+  <si>
+    <t>ERR14364121</t>
+  </si>
+  <si>
+    <t>ERR14364122</t>
+  </si>
+  <si>
+    <t>ERR14364123</t>
+  </si>
+  <si>
+    <t>ERR14364126</t>
+  </si>
+  <si>
+    <t>ERR14364133</t>
+  </si>
+  <si>
+    <t>ERR14364139</t>
+  </si>
+  <si>
+    <t>ERR14364140</t>
+  </si>
+  <si>
+    <t>ERR14364148</t>
+  </si>
+  <si>
+    <t>ERR14364149</t>
+  </si>
+  <si>
+    <t>ERR14364151</t>
+  </si>
+  <si>
+    <t>ERR14364145</t>
+  </si>
+  <si>
+    <t>ERR14364146</t>
+  </si>
+  <si>
+    <t>ERR14364147</t>
+  </si>
+  <si>
+    <t>ERR14364150</t>
+  </si>
+  <si>
+    <t>ERR14364152</t>
+  </si>
+  <si>
+    <t>ERR14364155</t>
+  </si>
+  <si>
+    <t>ERR14364157</t>
+  </si>
+  <si>
+    <t>ERR14364093</t>
+  </si>
+  <si>
+    <t>ERR14364095</t>
+  </si>
+  <si>
+    <t>ERR14364097</t>
+  </si>
+  <si>
+    <t>ERR14364099</t>
+  </si>
+  <si>
+    <t>ERR14364100</t>
+  </si>
+  <si>
+    <t>ERR14364106</t>
+  </si>
+  <si>
+    <t>ERR14364111</t>
+  </si>
+  <si>
+    <t>ERR14364117</t>
+  </si>
+  <si>
+    <t>ERR14364129</t>
+  </si>
+  <si>
+    <t>ERR14364131</t>
+  </si>
+  <si>
+    <t>ERR14364134</t>
+  </si>
+  <si>
+    <t>ERR14364135</t>
+  </si>
+  <si>
+    <t>ERR14364136</t>
+  </si>
+  <si>
+    <t>ERR14364137</t>
+  </si>
+  <si>
+    <t>ERR14364141</t>
+  </si>
+  <si>
+    <t>ERR14364143</t>
+  </si>
+  <si>
+    <t>ERR14364144</t>
+  </si>
+  <si>
+    <t>ERR14364153</t>
+  </si>
+  <si>
+    <t>ERR14364154</t>
+  </si>
+  <si>
+    <t>ERR14364156</t>
+  </si>
+  <si>
+    <t>ERR14364158</t>
+  </si>
+  <si>
+    <t>ERR14364159</t>
+  </si>
+  <si>
+    <t>TP_Discriminatory_SA1_20230426_barcode17</t>
+  </si>
+  <si>
+    <t>TP_Discriminatory_SA2_20230428_barcode08</t>
+  </si>
+  <si>
+    <t>TP_Discriminatory_SA2_20230428_barcode17</t>
+  </si>
+  <si>
+    <t>TP_Discriminatory_SA2_20230428_barcode19</t>
+  </si>
+  <si>
+    <t>TP_Discriminatory_SA2_20230428_barcode21</t>
+  </si>
+  <si>
+    <t>ONT-reads-still-not-online-yet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -1786,15 +1518,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1802,20 +1540,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1824,56 +1553,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2227,7 +1923,7 @@
   <dimension ref="A1:S73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2249,62 +1945,62 @@
     <col min="19" max="19" width="11.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="8" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:19" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="H1" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="M1" s="7" t="s">
+      <c r="L1" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="5" t="s">
         <v>263</v>
       </c>
     </row>
@@ -2313,7 +2009,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>378</v>
+        <v>307</v>
       </c>
       <c r="C2" s="1">
         <v>2021</v>
@@ -2331,7 +2027,7 @@
         <v>75</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>228</v>
+        <v>412</v>
       </c>
       <c r="I2" s="1">
         <v>4.46</v>
@@ -2343,7 +2039,7 @@
         <v>149</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>377</v>
+        <v>306</v>
       </c>
       <c r="M2" s="1">
         <v>2500000</v>
@@ -2372,7 +2068,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>499</v>
+        <v>405</v>
       </c>
       <c r="C3" s="1">
         <v>2021</v>
@@ -2390,7 +2086,7 @@
         <v>76</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>228</v>
+        <v>413</v>
       </c>
       <c r="I3" s="1">
         <v>3.64</v>
@@ -2402,7 +2098,7 @@
         <v>150</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>498</v>
+        <v>404</v>
       </c>
       <c r="M3" s="1">
         <v>2500000</v>
@@ -2431,7 +2127,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>418</v>
+        <v>343</v>
       </c>
       <c r="C4" s="1">
         <v>2021</v>
@@ -2449,7 +2145,7 @@
         <v>77</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>228</v>
+        <v>414</v>
       </c>
       <c r="I4" s="1">
         <v>2.68</v>
@@ -2461,7 +2157,7 @@
         <v>151</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>417</v>
+        <v>342</v>
       </c>
       <c r="M4" s="1">
         <v>2500000</v>
@@ -2490,7 +2186,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>365</v>
+        <v>295</v>
       </c>
       <c r="C5" s="1">
         <v>2021</v>
@@ -2508,7 +2204,7 @@
         <v>78</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>228</v>
+        <v>416</v>
       </c>
       <c r="I5" s="1">
         <v>3.3</v>
@@ -2520,7 +2216,7 @@
         <v>152</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>364</v>
+        <v>294</v>
       </c>
       <c r="M5" s="1">
         <v>2500000</v>
@@ -2549,7 +2245,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>443</v>
+        <v>361</v>
       </c>
       <c r="C6" s="1">
         <v>2021</v>
@@ -2567,7 +2263,7 @@
         <v>79</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>228</v>
+        <v>415</v>
       </c>
       <c r="I6" s="1">
         <v>3.64</v>
@@ -2579,7 +2275,7 @@
         <v>153</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>442</v>
+        <v>360</v>
       </c>
       <c r="M6" s="1">
         <v>2500000</v>
@@ -2608,7 +2304,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>382</v>
+        <v>311</v>
       </c>
       <c r="C7" s="1">
         <v>2022</v>
@@ -2626,7 +2322,7 @@
         <v>80</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>228</v>
+        <v>457</v>
       </c>
       <c r="I7" s="1">
         <v>4.1399999999999997</v>
@@ -2638,7 +2334,7 @@
         <v>154</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>381</v>
+        <v>310</v>
       </c>
       <c r="M7" s="1">
         <v>2500000</v>
@@ -2667,7 +2363,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>344</v>
+        <v>279</v>
       </c>
       <c r="C8" s="1">
         <v>2016</v>
@@ -2685,7 +2381,7 @@
         <v>81</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>228</v>
+        <v>418</v>
       </c>
       <c r="I8" s="1">
         <v>3.12</v>
@@ -2697,7 +2393,7 @@
         <v>155</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>343</v>
+        <v>278</v>
       </c>
       <c r="M8" s="1">
         <v>2500000</v>
@@ -2726,7 +2422,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>396</v>
+        <v>323</v>
       </c>
       <c r="C9" s="1">
         <v>2014</v>
@@ -2744,7 +2440,7 @@
         <v>82</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>228</v>
+        <v>458</v>
       </c>
       <c r="I9" s="1">
         <v>3.24</v>
@@ -2756,7 +2452,7 @@
         <v>156</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>395</v>
+        <v>322</v>
       </c>
       <c r="M9" s="1">
         <v>1820231</v>
@@ -2785,7 +2481,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>400</v>
+        <v>327</v>
       </c>
       <c r="C10" s="1">
         <v>2018</v>
@@ -2803,7 +2499,7 @@
         <v>83</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>228</v>
+        <v>419</v>
       </c>
       <c r="I10" s="1">
         <v>3.34</v>
@@ -2815,7 +2511,7 @@
         <v>157</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>399</v>
+        <v>326</v>
       </c>
       <c r="M10" s="1">
         <v>2500000</v>
@@ -2844,7 +2540,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>348</v>
+        <v>283</v>
       </c>
       <c r="C11" s="1">
         <v>2014</v>
@@ -2862,7 +2558,7 @@
         <v>84</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>228</v>
+        <v>459</v>
       </c>
       <c r="I11" s="1">
         <v>3.32</v>
@@ -2874,7 +2570,7 @@
         <v>158</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>347</v>
+        <v>282</v>
       </c>
       <c r="M11" s="1">
         <v>2500000</v>
@@ -2903,7 +2599,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>358</v>
+        <v>291</v>
       </c>
       <c r="C12" s="1">
         <v>2013</v>
@@ -2921,7 +2617,7 @@
         <v>85</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>228</v>
+        <v>423</v>
       </c>
       <c r="I12" s="1">
         <v>3.24</v>
@@ -2933,7 +2629,7 @@
         <v>159</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>357</v>
+        <v>290</v>
       </c>
       <c r="M12" s="1">
         <v>2500000</v>
@@ -2962,7 +2658,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>497</v>
+        <v>403</v>
       </c>
       <c r="C13" s="1">
         <v>2014</v>
@@ -2980,7 +2676,7 @@
         <v>86</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>228</v>
+        <v>460</v>
       </c>
       <c r="I13" s="1">
         <v>3.5</v>
@@ -2992,7 +2688,7 @@
         <v>160</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>496</v>
+        <v>402</v>
       </c>
       <c r="M13" s="1">
         <v>2500000</v>
@@ -3021,7 +2717,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>338</v>
+        <v>273</v>
       </c>
       <c r="C14" s="1">
         <v>2011</v>
@@ -3039,7 +2735,7 @@
         <v>87</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>228</v>
+        <v>461</v>
       </c>
       <c r="I14" s="1">
         <v>3.36</v>
@@ -3051,7 +2747,7 @@
         <v>161</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>337</v>
+        <v>272</v>
       </c>
       <c r="M14" s="1">
         <v>2500000</v>
@@ -3080,7 +2776,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>342</v>
+        <v>277</v>
       </c>
       <c r="C15" s="1">
         <v>2008</v>
@@ -3098,7 +2794,7 @@
         <v>88</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>228</v>
+        <v>426</v>
       </c>
       <c r="I15" s="1">
         <v>3.48</v>
@@ -3110,7 +2806,7 @@
         <v>162</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>341</v>
+        <v>276</v>
       </c>
       <c r="M15" s="1">
         <v>1787224</v>
@@ -3139,7 +2835,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>346</v>
+        <v>281</v>
       </c>
       <c r="C16" s="1">
         <v>2010</v>
@@ -3157,7 +2853,7 @@
         <v>89</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>228</v>
+        <v>429</v>
       </c>
       <c r="I16" s="1">
         <v>3.24</v>
@@ -3169,7 +2865,7 @@
         <v>163</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>345</v>
+        <v>280</v>
       </c>
       <c r="M16" s="1">
         <v>2500000</v>
@@ -3198,7 +2894,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>332</v>
+        <v>267</v>
       </c>
       <c r="C17" s="1">
         <v>2022</v>
@@ -3216,7 +2912,7 @@
         <v>90</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>228</v>
+        <v>430</v>
       </c>
       <c r="I17" s="1">
         <v>2.38</v>
@@ -3228,7 +2924,7 @@
         <v>164</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>331</v>
+        <v>266</v>
       </c>
       <c r="M17" s="1">
         <v>2500000</v>
@@ -3257,7 +2953,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>447</v>
+        <v>365</v>
       </c>
       <c r="C18" s="1">
         <v>2022</v>
@@ -3274,8 +2970,8 @@
       <c r="G18" t="s">
         <v>91</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>228</v>
+      <c r="H18" s="7" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I18" s="1">
         <v>3.6</v>
@@ -3287,7 +2983,7 @@
         <v>165</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>446</v>
+        <v>364</v>
       </c>
       <c r="M18" s="1">
         <v>2500000</v>
@@ -3316,7 +3012,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>367</v>
+        <v>297</v>
       </c>
       <c r="C19" s="1">
         <v>2008</v>
@@ -3334,7 +3030,7 @@
         <v>92</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>228</v>
+        <v>417</v>
       </c>
       <c r="I19" s="1">
         <v>3.22</v>
@@ -3346,7 +3042,7 @@
         <v>166</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>366</v>
+        <v>296</v>
       </c>
       <c r="M19" s="1">
         <v>2500000</v>
@@ -3375,7 +3071,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>495</v>
+        <v>401</v>
       </c>
       <c r="C20" s="1">
         <v>2022</v>
@@ -3393,7 +3089,7 @@
         <v>93</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>228</v>
+        <v>462</v>
       </c>
       <c r="I20" s="1">
         <v>2.96</v>
@@ -3405,7 +3101,7 @@
         <v>167</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>494</v>
+        <v>400</v>
       </c>
       <c r="M20" s="1">
         <v>2405199</v>
@@ -3434,7 +3130,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
       <c r="C21" s="1">
         <v>2022</v>
@@ -3452,7 +3148,7 @@
         <v>94</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>228</v>
+        <v>431</v>
       </c>
       <c r="I21" s="1">
         <v>2.86</v>
@@ -3464,7 +3160,7 @@
         <v>168</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>393</v>
+        <v>320</v>
       </c>
       <c r="M21" s="1">
         <v>2500000</v>
@@ -3493,7 +3189,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>481</v>
+        <v>393</v>
       </c>
       <c r="C22" s="1">
         <v>2020</v>
@@ -3511,7 +3207,7 @@
         <v>95</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>228</v>
+        <v>420</v>
       </c>
       <c r="I22" s="1">
         <v>3.56</v>
@@ -3523,7 +3219,7 @@
         <v>169</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>480</v>
+        <v>392</v>
       </c>
       <c r="M22" s="1">
         <v>2500000</v>
@@ -3552,7 +3248,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>440</v>
+        <v>359</v>
       </c>
       <c r="C23" s="1">
         <v>2021</v>
@@ -3570,7 +3266,7 @@
         <v>96</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>228</v>
+        <v>432</v>
       </c>
       <c r="I23" s="1">
         <v>2.56</v>
@@ -3582,7 +3278,7 @@
         <v>170</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>439</v>
+        <v>358</v>
       </c>
       <c r="M23" s="1">
         <v>2500000</v>
@@ -3611,7 +3307,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>340</v>
+        <v>275</v>
       </c>
       <c r="C24" s="1">
         <v>2020</v>
@@ -3629,7 +3325,7 @@
         <v>97</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>228</v>
+        <v>433</v>
       </c>
       <c r="I24" s="1">
         <v>3</v>
@@ -3641,7 +3337,7 @@
         <v>171</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>339</v>
+        <v>274</v>
       </c>
       <c r="M24" s="1">
         <v>2500000</v>
@@ -3670,7 +3366,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>416</v>
+        <v>341</v>
       </c>
       <c r="C25" s="1">
         <v>2021</v>
@@ -3688,7 +3384,7 @@
         <v>98</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>228</v>
+        <v>463</v>
       </c>
       <c r="I25" s="1">
         <v>2.82</v>
@@ -3700,7 +3396,7 @@
         <v>172</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>415</v>
+        <v>340</v>
       </c>
       <c r="M25" s="1">
         <v>2500000</v>
@@ -3729,7 +3425,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>387</v>
+        <v>315</v>
       </c>
       <c r="C26" s="1">
         <v>2021</v>
@@ -3747,7 +3443,7 @@
         <v>100</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>228</v>
+        <v>434</v>
       </c>
       <c r="I26" s="1">
         <v>3.18</v>
@@ -3759,7 +3455,7 @@
         <v>173</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>386</v>
+        <v>314</v>
       </c>
       <c r="M26" s="1">
         <v>2500000</v>
@@ -3788,7 +3484,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>404</v>
+        <v>331</v>
       </c>
       <c r="C27" s="1">
         <v>2022</v>
@@ -3806,7 +3502,7 @@
         <v>101</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>228</v>
+        <v>435</v>
       </c>
       <c r="I27" s="1">
         <v>2.6</v>
@@ -3818,7 +3514,7 @@
         <v>174</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>403</v>
+        <v>330</v>
       </c>
       <c r="M27" s="1">
         <v>2500000</v>
@@ -3847,7 +3543,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>459</v>
+        <v>375</v>
       </c>
       <c r="C28" s="1">
         <v>2022</v>
@@ -3865,7 +3561,7 @@
         <v>102</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>228</v>
+        <v>436</v>
       </c>
       <c r="I28" s="1">
         <v>2.8</v>
@@ -3877,7 +3573,7 @@
         <v>175</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>458</v>
+        <v>374</v>
       </c>
       <c r="M28" s="1">
         <v>2500000</v>
@@ -3906,7 +3602,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>474</v>
+        <v>389</v>
       </c>
       <c r="C29" s="1">
         <v>2019</v>
@@ -3924,7 +3620,7 @@
         <v>103</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>228</v>
+        <v>437</v>
       </c>
       <c r="I29" s="1">
         <v>2.82</v>
@@ -3936,7 +3632,7 @@
         <v>216</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>473</v>
+        <v>388</v>
       </c>
       <c r="M29" s="1">
         <v>650161</v>
@@ -3965,7 +3661,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>503</v>
+        <v>409</v>
       </c>
       <c r="C30" s="1">
         <v>2017</v>
@@ -3983,7 +3679,7 @@
         <v>104</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>228</v>
+        <v>421</v>
       </c>
       <c r="I30" s="1">
         <v>3.46</v>
@@ -3995,7 +3691,7 @@
         <v>176</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>502</v>
+        <v>408</v>
       </c>
       <c r="M30" s="1">
         <v>2500000</v>
@@ -4024,7 +3720,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>445</v>
+        <v>363</v>
       </c>
       <c r="C31" s="1">
         <v>2015</v>
@@ -4042,7 +3738,7 @@
         <v>105</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>228</v>
+        <v>464</v>
       </c>
       <c r="I31" s="1">
         <v>2.58</v>
@@ -4054,7 +3750,7 @@
         <v>177</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>444</v>
+        <v>362</v>
       </c>
       <c r="M31" s="1">
         <v>2500000</v>
@@ -4083,7 +3779,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>413</v>
+        <v>339</v>
       </c>
       <c r="C32" s="1">
         <v>2017</v>
@@ -4101,7 +3797,7 @@
         <v>106</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>228</v>
+        <v>438</v>
       </c>
       <c r="I32" s="1">
         <v>2.64</v>
@@ -4113,7 +3809,7 @@
         <v>178</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>412</v>
+        <v>338</v>
       </c>
       <c r="M32" s="1">
         <v>1424869</v>
@@ -4142,7 +3838,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>431</v>
+        <v>351</v>
       </c>
       <c r="C33" s="1">
         <v>2018</v>
@@ -4159,8 +3855,8 @@
       <c r="G33" t="s">
         <v>107</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>228</v>
+      <c r="H33" s="7" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I33" s="1">
         <v>3.3</v>
@@ -4172,7 +3868,7 @@
         <v>179</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>430</v>
+        <v>350</v>
       </c>
       <c r="M33" s="1">
         <v>2500000</v>
@@ -4201,7 +3897,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>486</v>
+        <v>397</v>
       </c>
       <c r="C34" s="1">
         <v>2018</v>
@@ -4219,7 +3915,7 @@
         <v>108</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>228</v>
+        <v>439</v>
       </c>
       <c r="I34" s="1">
         <v>2.46</v>
@@ -4231,7 +3927,7 @@
         <v>180</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>485</v>
+        <v>396</v>
       </c>
       <c r="M34" s="1">
         <v>1711862</v>
@@ -4260,7 +3956,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>456</v>
+        <v>373</v>
       </c>
       <c r="C35" s="1">
         <v>2017</v>
@@ -4278,7 +3974,7 @@
         <v>109</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>228</v>
+        <v>440</v>
       </c>
       <c r="I35" s="1">
         <v>2.52</v>
@@ -4290,7 +3986,7 @@
         <v>181</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>455</v>
+        <v>372</v>
       </c>
       <c r="M35" s="1">
         <v>2500000</v>
@@ -4319,7 +4015,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>380</v>
+        <v>309</v>
       </c>
       <c r="C36" s="1">
         <v>2018</v>
@@ -4337,7 +4033,7 @@
         <v>110</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>228</v>
+        <v>441</v>
       </c>
       <c r="I36" s="1">
         <v>2.16</v>
@@ -4349,7 +4045,7 @@
         <v>217</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>379</v>
+        <v>308</v>
       </c>
       <c r="M36" s="1">
         <v>803558</v>
@@ -4378,7 +4074,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>385</v>
+        <v>313</v>
       </c>
       <c r="C37" s="1">
         <v>2012</v>
@@ -4396,7 +4092,7 @@
         <v>111</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>228</v>
+        <v>442</v>
       </c>
       <c r="I37" s="1">
         <v>2.2999999999999998</v>
@@ -4408,7 +4104,7 @@
         <v>182</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>384</v>
+        <v>312</v>
       </c>
       <c r="M37" s="1">
         <v>2500000</v>
@@ -4437,7 +4133,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>356</v>
+        <v>289</v>
       </c>
       <c r="C38" s="1">
         <v>2008</v>
@@ -4455,7 +4151,7 @@
         <v>112</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>228</v>
+        <v>422</v>
       </c>
       <c r="I38" s="1">
         <v>2.72</v>
@@ -4467,7 +4163,7 @@
         <v>183</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>355</v>
+        <v>288</v>
       </c>
       <c r="M38" s="1">
         <v>2500000</v>
@@ -4496,7 +4192,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>353</v>
+        <v>287</v>
       </c>
       <c r="C39" s="1">
         <v>2009</v>
@@ -4514,7 +4210,7 @@
         <v>113</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>228</v>
+        <v>424</v>
       </c>
       <c r="I39" s="1">
         <v>2.84</v>
@@ -4526,7 +4222,7 @@
         <v>184</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>352</v>
+        <v>286</v>
       </c>
       <c r="M39" s="1">
         <v>2500000</v>
@@ -4555,7 +4251,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>484</v>
+        <v>395</v>
       </c>
       <c r="C40" s="1">
         <v>2011</v>
@@ -4573,7 +4269,7 @@
         <v>114</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>228</v>
+        <v>443</v>
       </c>
       <c r="I40" s="1">
         <v>2.68</v>
@@ -4585,7 +4281,7 @@
         <v>185</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>483</v>
+        <v>394</v>
       </c>
       <c r="M40" s="1">
         <v>2500000</v>
@@ -4614,7 +4310,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>402</v>
+        <v>329</v>
       </c>
       <c r="C41" s="1">
         <v>2008</v>
@@ -4632,7 +4328,7 @@
         <v>115</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>228</v>
+        <v>425</v>
       </c>
       <c r="I41" s="1">
         <v>2.94</v>
@@ -4644,7 +4340,7 @@
         <v>186</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>401</v>
+        <v>328</v>
       </c>
       <c r="M41" s="1">
         <v>2500000</v>
@@ -4673,7 +4369,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>449</v>
+        <v>367</v>
       </c>
       <c r="C42" s="1">
         <v>2020</v>
@@ -4690,8 +4386,8 @@
       <c r="G42" t="s">
         <v>116</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>228</v>
+      <c r="H42" s="7" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I42" s="1">
         <v>3.72</v>
@@ -4703,7 +4399,7 @@
         <v>187</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>448</v>
+        <v>366</v>
       </c>
       <c r="M42" s="1">
         <v>2500000</v>
@@ -4732,7 +4428,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>406</v>
+        <v>333</v>
       </c>
       <c r="C43" s="1">
         <v>2022</v>
@@ -4750,7 +4446,7 @@
         <v>117</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>228</v>
+        <v>465</v>
       </c>
       <c r="I43" s="1">
         <v>2.48</v>
@@ -4762,7 +4458,7 @@
         <v>188</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>405</v>
+        <v>332</v>
       </c>
       <c r="M43" s="1">
         <v>2500000</v>
@@ -4791,7 +4487,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>336</v>
+        <v>271</v>
       </c>
       <c r="C44" s="1">
         <v>2021</v>
@@ -4808,8 +4504,8 @@
       <c r="G44" t="s">
         <v>118</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>228</v>
+      <c r="H44" s="7" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I44" s="1">
         <v>2.84</v>
@@ -4821,7 +4517,7 @@
         <v>189</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>335</v>
+        <v>270</v>
       </c>
       <c r="M44" s="1">
         <v>2500000</v>
@@ -4850,7 +4546,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>391</v>
+        <v>319</v>
       </c>
       <c r="C45" s="1">
         <v>2020</v>
@@ -4868,7 +4564,7 @@
         <v>119</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>228</v>
+        <v>466</v>
       </c>
       <c r="I45" s="1">
         <v>2.64</v>
@@ -4880,7 +4576,7 @@
         <v>190</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>390</v>
+        <v>318</v>
       </c>
       <c r="M45" s="1">
         <v>2500000</v>
@@ -4909,7 +4605,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>472</v>
+        <v>387</v>
       </c>
       <c r="C46" s="1">
         <v>2013</v>
@@ -4926,8 +4622,8 @@
       <c r="G46" t="s">
         <v>120</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>228</v>
+      <c r="H46" s="7" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I46" s="1">
         <v>2.46</v>
@@ -4939,7 +4635,7 @@
         <v>218</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>471</v>
+        <v>386</v>
       </c>
       <c r="M46" s="1">
         <v>1116609</v>
@@ -4968,7 +4664,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>372</v>
+        <v>301</v>
       </c>
       <c r="C47" s="1">
         <v>2016</v>
@@ -4986,7 +4682,7 @@
         <v>121</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>228</v>
+        <v>444</v>
       </c>
       <c r="I47" s="1">
         <v>3.62</v>
@@ -4998,7 +4694,7 @@
         <v>191</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>371</v>
+        <v>300</v>
       </c>
       <c r="M47" s="1">
         <v>2500000</v>
@@ -5027,7 +4723,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>466</v>
+        <v>381</v>
       </c>
       <c r="C48" s="1">
         <v>2018</v>
@@ -5045,7 +4741,7 @@
         <v>122</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>228</v>
+        <v>467</v>
       </c>
       <c r="I48" s="1">
         <v>3.14</v>
@@ -5057,7 +4753,7 @@
         <v>192</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>465</v>
+        <v>380</v>
       </c>
       <c r="M48" s="1">
         <v>2500000</v>
@@ -5086,7 +4782,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>362</v>
+        <v>293</v>
       </c>
       <c r="C49" s="1">
         <v>2019</v>
@@ -5104,7 +4800,7 @@
         <v>123</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>228</v>
+        <v>468</v>
       </c>
       <c r="I49" s="1">
         <v>2.8</v>
@@ -5116,7 +4812,7 @@
         <v>193</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>361</v>
+        <v>292</v>
       </c>
       <c r="M49" s="1">
         <v>2500000</v>
@@ -5145,7 +4841,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>435</v>
+        <v>355</v>
       </c>
       <c r="C50" s="1">
         <v>2016</v>
@@ -5163,7 +4859,7 @@
         <v>125</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>228</v>
+        <v>469</v>
       </c>
       <c r="I50" s="1">
         <v>3.06</v>
@@ -5175,7 +4871,7 @@
         <v>194</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>434</v>
+        <v>354</v>
       </c>
       <c r="M50" s="1">
         <v>2500000</v>
@@ -5204,7 +4900,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>426</v>
+        <v>347</v>
       </c>
       <c r="C51" s="1">
         <v>2017</v>
@@ -5222,7 +4918,7 @@
         <v>126</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>228</v>
+        <v>470</v>
       </c>
       <c r="I51" s="1">
         <v>3.02</v>
@@ -5234,7 +4930,7 @@
         <v>195</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>425</v>
+        <v>346</v>
       </c>
       <c r="M51" s="1">
         <v>2500000</v>
@@ -5263,7 +4959,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>376</v>
+        <v>305</v>
       </c>
       <c r="C52" s="1">
         <v>2022</v>
@@ -5281,7 +4977,7 @@
         <v>127</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>228</v>
+        <v>427</v>
       </c>
       <c r="I52" s="1">
         <v>2.84</v>
@@ -5293,7 +4989,7 @@
         <v>196</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>375</v>
+        <v>304</v>
       </c>
       <c r="M52" s="1">
         <v>2500000</v>
@@ -5322,7 +5018,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>468</v>
+        <v>383</v>
       </c>
       <c r="C53" s="1">
         <v>2019</v>
@@ -5340,7 +5036,7 @@
         <v>128</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>228</v>
+        <v>445</v>
       </c>
       <c r="I53" s="1">
         <v>3.08</v>
@@ -5352,7 +5048,7 @@
         <v>197</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>467</v>
+        <v>382</v>
       </c>
       <c r="M53" s="1">
         <v>2500000</v>
@@ -5381,7 +5077,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>424</v>
+        <v>345</v>
       </c>
       <c r="C54" s="1">
         <v>2009</v>
@@ -5399,7 +5095,7 @@
         <v>129</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>228</v>
+        <v>446</v>
       </c>
       <c r="I54" s="1">
         <v>2.12</v>
@@ -5411,7 +5107,7 @@
         <v>198</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>423</v>
+        <v>344</v>
       </c>
       <c r="M54" s="1">
         <v>2500000</v>
@@ -5440,7 +5136,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>398</v>
+        <v>325</v>
       </c>
       <c r="C55" s="1">
         <v>2008</v>
@@ -5458,7 +5154,7 @@
         <v>130</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>228</v>
+        <v>471</v>
       </c>
       <c r="I55" s="1">
         <v>2.5</v>
@@ -5470,7 +5166,7 @@
         <v>199</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>397</v>
+        <v>324</v>
       </c>
       <c r="M55" s="1">
         <v>2500000</v>
@@ -5499,7 +5195,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>410</v>
+        <v>337</v>
       </c>
       <c r="C56" s="1">
         <v>2010</v>
@@ -5517,7 +5213,7 @@
         <v>131</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>228</v>
+        <v>428</v>
       </c>
       <c r="I56" s="1">
         <v>2.68</v>
@@ -5529,7 +5225,7 @@
         <v>200</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>409</v>
+        <v>336</v>
       </c>
       <c r="M56" s="1">
         <v>2024954</v>
@@ -5558,7 +5254,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>452</v>
+        <v>369</v>
       </c>
       <c r="C57" s="1">
         <v>2012</v>
@@ -5576,7 +5272,7 @@
         <v>132</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>228</v>
+        <v>472</v>
       </c>
       <c r="I57" s="1">
         <v>3.5</v>
@@ -5588,7 +5284,7 @@
         <v>219</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>451</v>
+        <v>368</v>
       </c>
       <c r="M57" s="1">
         <v>1040349</v>
@@ -5617,7 +5313,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>374</v>
+        <v>303</v>
       </c>
       <c r="C58" s="1">
         <v>2008</v>
@@ -5635,7 +5331,7 @@
         <v>133</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>228</v>
+        <v>473</v>
       </c>
       <c r="I58" s="1">
         <v>2.74</v>
@@ -5647,7 +5343,7 @@
         <v>201</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>373</v>
+        <v>302</v>
       </c>
       <c r="M58" s="1">
         <v>2500000</v>
@@ -5676,7 +5372,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>454</v>
+        <v>371</v>
       </c>
       <c r="C59" s="1">
         <v>2010</v>
@@ -5694,7 +5390,7 @@
         <v>134</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>228</v>
+        <v>450</v>
       </c>
       <c r="I59" s="1">
         <v>2.34</v>
@@ -5706,7 +5402,7 @@
         <v>202</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>453</v>
+        <v>370</v>
       </c>
       <c r="M59" s="1">
         <v>2500000</v>
@@ -5735,7 +5431,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>429</v>
+        <v>349</v>
       </c>
       <c r="C60" s="1">
         <v>2011</v>
@@ -5753,7 +5449,7 @@
         <v>135</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>228</v>
+        <v>451</v>
       </c>
       <c r="I60" s="1">
         <v>2.54</v>
@@ -5765,7 +5461,7 @@
         <v>203</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>428</v>
+        <v>348</v>
       </c>
       <c r="M60" s="1">
         <v>2500000</v>
@@ -5794,7 +5490,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>433</v>
+        <v>353</v>
       </c>
       <c r="C61" s="1">
         <v>2009</v>
@@ -5812,7 +5508,7 @@
         <v>136</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>228</v>
+        <v>452</v>
       </c>
       <c r="I61" s="1">
         <v>2.86</v>
@@ -5824,7 +5520,7 @@
         <v>204</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>432</v>
+        <v>352</v>
       </c>
       <c r="M61" s="1">
         <v>2500000</v>
@@ -5853,7 +5549,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>350</v>
+        <v>285</v>
       </c>
       <c r="C62" s="1">
         <v>2021</v>
@@ -5871,7 +5567,7 @@
         <v>137</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>228</v>
+        <v>447</v>
       </c>
       <c r="I62" s="1">
         <v>2.2200000000000002</v>
@@ -5883,7 +5579,7 @@
         <v>220</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>349</v>
+        <v>284</v>
       </c>
       <c r="M62" s="1">
         <v>580034</v>
@@ -5912,7 +5608,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>408</v>
+        <v>335</v>
       </c>
       <c r="C63" s="1">
         <v>2021</v>
@@ -5930,7 +5626,7 @@
         <v>138</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>228</v>
+        <v>448</v>
       </c>
       <c r="I63" s="1">
         <v>2.76</v>
@@ -5942,7 +5638,7 @@
         <v>205</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>407</v>
+        <v>334</v>
       </c>
       <c r="M63" s="1">
         <v>2500000</v>
@@ -5971,7 +5667,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>437</v>
+        <v>357</v>
       </c>
       <c r="C64" s="1">
         <v>2020</v>
@@ -5989,7 +5685,7 @@
         <v>139</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>228</v>
+        <v>453</v>
       </c>
       <c r="I64" s="1">
         <v>3.34</v>
@@ -6001,7 +5697,7 @@
         <v>206</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>436</v>
+        <v>356</v>
       </c>
       <c r="M64" s="1">
         <v>1199856</v>
@@ -6030,7 +5726,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>334</v>
+        <v>269</v>
       </c>
       <c r="C65" s="1">
         <v>2021</v>
@@ -6048,7 +5744,7 @@
         <v>140</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>228</v>
+        <v>449</v>
       </c>
       <c r="I65" s="1">
         <v>3.08</v>
@@ -6060,7 +5756,7 @@
         <v>207</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>333</v>
+        <v>268</v>
       </c>
       <c r="M65" s="1">
         <v>2500000</v>
@@ -6089,7 +5785,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>470</v>
+        <v>385</v>
       </c>
       <c r="C66" s="1">
         <v>2021</v>
@@ -6107,7 +5803,7 @@
         <v>141</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>228</v>
+        <v>454</v>
       </c>
       <c r="I66" s="1">
         <v>2.38</v>
@@ -6119,7 +5815,7 @@
         <v>221</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>469</v>
+        <v>384</v>
       </c>
       <c r="M66" s="1">
         <v>409453</v>
@@ -6148,7 +5844,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>492</v>
+        <v>399</v>
       </c>
       <c r="C67" s="1">
         <v>2021</v>
@@ -6166,7 +5862,7 @@
         <v>142</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>228</v>
+        <v>474</v>
       </c>
       <c r="I67" s="1">
         <v>2.38</v>
@@ -6178,7 +5874,7 @@
         <v>208</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>491</v>
+        <v>398</v>
       </c>
       <c r="M67" s="1">
         <v>1796160</v>
@@ -6207,7 +5903,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>369</v>
+        <v>299</v>
       </c>
       <c r="C68" s="1">
         <v>2020</v>
@@ -6225,7 +5921,7 @@
         <v>143</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>228</v>
+        <v>475</v>
       </c>
       <c r="I68" s="1">
         <v>2.98</v>
@@ -6237,7 +5933,7 @@
         <v>222</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>368</v>
+        <v>298</v>
       </c>
       <c r="M68" s="1">
         <v>910134</v>
@@ -6266,7 +5962,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>463</v>
+        <v>379</v>
       </c>
       <c r="C69" s="1">
         <v>2013</v>
@@ -6284,7 +5980,7 @@
         <v>144</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>228</v>
+        <v>455</v>
       </c>
       <c r="I69" s="1">
         <v>2.68</v>
@@ -6296,7 +5992,7 @@
         <v>223</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>462</v>
+        <v>378</v>
       </c>
       <c r="M69" s="1">
         <v>655036</v>
@@ -6325,7 +6021,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>501</v>
+        <v>407</v>
       </c>
       <c r="C70" s="1">
         <v>2019</v>
@@ -6343,7 +6039,7 @@
         <v>145</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>228</v>
+        <v>476</v>
       </c>
       <c r="I70" s="1">
         <v>2.4</v>
@@ -6355,7 +6051,7 @@
         <v>224</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>500</v>
+        <v>406</v>
       </c>
       <c r="M70" s="1">
         <v>426741</v>
@@ -6384,7 +6080,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>477</v>
+        <v>391</v>
       </c>
       <c r="C71" s="1">
         <v>2013</v>
@@ -6402,7 +6098,7 @@
         <v>146</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>228</v>
+        <v>456</v>
       </c>
       <c r="I71" s="1">
         <v>3.58</v>
@@ -6414,7 +6110,7 @@
         <v>209</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>476</v>
+        <v>390</v>
       </c>
       <c r="M71" s="1">
         <v>2500000</v>
@@ -6443,7 +6139,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>461</v>
+        <v>377</v>
       </c>
       <c r="C72" s="1">
         <v>2016</v>
@@ -6461,7 +6157,7 @@
         <v>147</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>228</v>
+        <v>477</v>
       </c>
       <c r="I72" s="1">
         <v>2.76</v>
@@ -6473,7 +6169,7 @@
         <v>210</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>460</v>
+        <v>376</v>
       </c>
       <c r="M72" s="1">
         <v>2500000</v>
@@ -6502,7 +6198,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>389</v>
+        <v>317</v>
       </c>
       <c r="C73" s="1">
         <v>2016</v>
@@ -6520,7 +6216,7 @@
         <v>148</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>228</v>
+        <v>478</v>
       </c>
       <c r="I73" s="1">
         <v>2.98</v>
@@ -6532,7 +6228,7 @@
         <v>211</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>388</v>
+        <v>316</v>
       </c>
       <c r="M73" s="1">
         <v>2500000</v>
@@ -6558,12 +6254,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6573,1511 +6269,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0E6898-8A61-3C4B-8775-F6E394965B51}">
-  <dimension ref="A1:C135"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C23" s="1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C41" s="1" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A2">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/SuppTable3__SouthAfrica_ONT-vs-Illumina_metadata.xlsx
+++ b/data/SuppTable3__SouthAfrica_ONT-vs-Illumina_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mb29/Papers/AmpliSeq_Treponema_paper_2024/Github/TP-Phylo-Plex_paper_2025/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840E8E2A-90AC-8545-BAC6-FF3FC5A88330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5687907C-AAE7-FB4D-A377-F540ED9B431F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="28800" windowHeight="14520" xr2:uid="{7D288DAB-841B-5641-863B-83446A7A6A09}"/>
+    <workbookView xWindow="-33580" yWindow="2840" windowWidth="28800" windowHeight="14520" xr2:uid="{7D288DAB-841B-5641-863B-83446A7A6A09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="486">
   <si>
     <t>Sample Name</t>
   </si>
@@ -1496,6 +1496,9 @@
   </si>
   <si>
     <t>ONT-reads-still-not-online-yet</t>
+  </si>
+  <si>
+    <t>tbd</t>
   </si>
 </sst>
 </file>
@@ -1923,7 +1926,7 @@
   <dimension ref="A1:S73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2970,8 +2973,8 @@
       <c r="G18" t="s">
         <v>91</v>
       </c>
-      <c r="H18" s="7" t="e">
-        <v>#N/A</v>
+      <c r="H18" s="7" t="s">
+        <v>485</v>
       </c>
       <c r="I18" s="1">
         <v>3.6</v>
@@ -3855,8 +3858,8 @@
       <c r="G33" t="s">
         <v>107</v>
       </c>
-      <c r="H33" s="7" t="e">
-        <v>#N/A</v>
+      <c r="H33" s="7" t="s">
+        <v>485</v>
       </c>
       <c r="I33" s="1">
         <v>3.3</v>
@@ -4386,8 +4389,8 @@
       <c r="G42" t="s">
         <v>116</v>
       </c>
-      <c r="H42" s="7" t="e">
-        <v>#N/A</v>
+      <c r="H42" s="7" t="s">
+        <v>485</v>
       </c>
       <c r="I42" s="1">
         <v>3.72</v>
@@ -4504,8 +4507,8 @@
       <c r="G44" t="s">
         <v>118</v>
       </c>
-      <c r="H44" s="7" t="e">
-        <v>#N/A</v>
+      <c r="H44" s="7" t="s">
+        <v>485</v>
       </c>
       <c r="I44" s="1">
         <v>2.84</v>
@@ -4622,8 +4625,8 @@
       <c r="G46" t="s">
         <v>120</v>
       </c>
-      <c r="H46" s="7" t="e">
-        <v>#N/A</v>
+      <c r="H46" s="7" t="s">
+        <v>485</v>
       </c>
       <c r="I46" s="1">
         <v>2.46</v>
